--- a/backend/projects/project-a-123-sunset-blvd/data/01_LAND_PURCHASE/Land_Costs.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/01_LAND_PURCHASE/Land_Costs.xlsx
@@ -2,16 +2,30 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24800" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Land Costs" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Land Costs" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">'Land Costs'!$C$1:$F$1</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">'Land Costs'!$C$2:$F$2</definedName>
+    <definedName name="_xlchart.v2.10" hidden="1">'Land Costs'!$D$2:$D$7</definedName>
+    <definedName name="_xlchart.v2.11" hidden="1">'Land Costs'!$E$1</definedName>
+    <definedName name="_xlchart.v2.12" hidden="1">'Land Costs'!$E$2:$E$7</definedName>
+    <definedName name="_xlchart.v2.13" hidden="1">'Land Costs'!$F$1</definedName>
+    <definedName name="_xlchart.v2.14" hidden="1">'Land Costs'!$F$2:$F$7</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">'Land Costs'!$C$3:$F$3</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">'Land Costs'!$C$4:$F$4</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">'Land Costs'!$C$5:$F$5</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">'Land Costs'!$C$6:$F$6</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">'Land Costs'!$C$7:$F$7</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">'Land Costs'!$C$1</definedName>
+    <definedName name="_xlchart.v2.8" hidden="1">'Land Costs'!$C$2:$C$7</definedName>
+    <definedName name="_xlchart.v2.9" hidden="1">'Land Costs'!$D$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -27,6 +41,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
       <sz val="11"/>
     </font>
@@ -40,8 +56,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D3D3D3"/>
-        <bgColor rgb="00D3D3D3"/>
+        <fgColor rgb="FFD3D3D3"/>
+        <bgColor rgb="FFD3D3D3"/>
       </patternFill>
     </fill>
   </fills>
@@ -62,7 +78,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -134,6 +150,468 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:t/>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+      <txPr>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </txPr>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Land Costs'!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Amount</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <val>
+            <numRef>
+              <f>'Land Costs'!$C$2:$C$7</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="6"/>
+                <pt idx="0">
+                  <v>250000</v>
+                </pt>
+                <pt idx="1">
+                  <v>9970</v>
+                </pt>
+                <pt idx="3">
+                  <v>150</v>
+                </pt>
+                <pt idx="4">
+                  <v>1850</v>
+                </pt>
+                <pt idx="5">
+                  <v>1200</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Land Costs'!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>GST</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <val>
+            <numRef>
+              <f>'Land Costs'!$D$2:$D$7</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="6"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>0</v>
+                </pt>
+                <pt idx="3">
+                  <v>0</v>
+                </pt>
+                <pt idx="4">
+                  <v>185</v>
+                </pt>
+                <pt idx="5">
+                  <v>120</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'Land Costs'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Total</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <val>
+            <numRef>
+              <f>'Land Costs'!$E$2:$E$7</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="6"/>
+                <pt idx="0">
+                  <v>250000</v>
+                </pt>
+                <pt idx="1">
+                  <v>9970</v>
+                </pt>
+                <pt idx="3">
+                  <v>150</v>
+                </pt>
+                <pt idx="4">
+                  <v>2035</v>
+                </pt>
+                <pt idx="5">
+                  <v>1320</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'Land Costs'!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Date Paid</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <val>
+            <numRef>
+              <f>'Land Costs'!$F$2:$F$7</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="6"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>0</v>
+                </pt>
+                <pt idx="3">
+                  <v>0</v>
+                </pt>
+                <pt idx="4">
+                  <v>0</v>
+                </pt>
+                <pt idx="5">
+                  <v>0</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="219"/>
+        <overlap val="-27"/>
+        <axId val="1721233408"/>
+        <axId val="1721235120"/>
+      </barChart>
+      <catAx>
+        <axId val="1721233408"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+        <crossAx val="1721235120"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="1721235120"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+        <crossAx val="1721233408"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+      <txPr>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </txPr>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+  <spPr>
+    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+  </spPr>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>57150</colOff>
+      <row>8</row>
+      <rowOff>165100</rowOff>
+    </from>
+    <to>
+      <col>7</col>
+      <colOff>628650</colOff>
+      <row>23</row>
+      <rowOff>50800</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,31 +903,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="17.6640625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="7.5" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="4.1640625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="7.1640625" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="10.1640625" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="5.83203125" bestFit="1" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -642,18 +1111,949 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
       <c r="E8">
         <f>SUM(E2:E7)</f>
         <v/>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1816</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7396</v>
+      </c>
+      <c r="C9" t="n">
+        <v>40314</v>
+      </c>
+      <c r="D9" t="n">
+        <v>37939</v>
+      </c>
+      <c r="E9">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F9" t="n">
+        <v>48357</v>
+      </c>
+      <c r="G9" t="n">
+        <v>28729</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>40221</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3145</v>
+      </c>
+      <c r="C10" t="n">
+        <v>36052</v>
+      </c>
+      <c r="D10" t="n">
+        <v>28232</v>
+      </c>
+      <c r="E10">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F10" t="n">
+        <v>36501</v>
+      </c>
+      <c r="G10" t="n">
+        <v>12341</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>23274</v>
+      </c>
+      <c r="B11" t="n">
+        <v>12427</v>
+      </c>
+      <c r="C11" t="n">
+        <v>32957</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5532</v>
+      </c>
+      <c r="E11">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F11" t="n">
+        <v>29382</v>
+      </c>
+      <c r="G11" t="n">
+        <v>16019</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>16103</v>
+      </c>
+      <c r="B12" t="n">
+        <v>28780</v>
+      </c>
+      <c r="C12" t="n">
+        <v>34003</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10928</v>
+      </c>
+      <c r="E12">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F12" t="n">
+        <v>42751</v>
+      </c>
+      <c r="G12" t="n">
+        <v>46990</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>48106</v>
+      </c>
+      <c r="B13" t="n">
+        <v>40385</v>
+      </c>
+      <c r="C13" t="n">
+        <v>41451</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7038</v>
+      </c>
+      <c r="E13">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F13" t="n">
+        <v>7070</v>
+      </c>
+      <c r="G13" t="n">
+        <v>32195</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1223</v>
+      </c>
+      <c r="B14" t="n">
+        <v>35606</v>
+      </c>
+      <c r="C14" t="n">
+        <v>38658</v>
+      </c>
+      <c r="D14" t="n">
+        <v>13714</v>
+      </c>
+      <c r="E14">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F14" t="n">
+        <v>21219</v>
+      </c>
+      <c r="G14" t="n">
+        <v>35526</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>40403</v>
+      </c>
+      <c r="B15" t="n">
+        <v>35480</v>
+      </c>
+      <c r="C15" t="n">
+        <v>49651</v>
+      </c>
+      <c r="D15" t="n">
+        <v>49663</v>
+      </c>
+      <c r="E15">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F15" t="n">
+        <v>48757</v>
+      </c>
+      <c r="G15" t="n">
+        <v>15232</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>25914</v>
+      </c>
+      <c r="B16" t="n">
+        <v>48115</v>
+      </c>
+      <c r="C16" t="n">
+        <v>37676</v>
+      </c>
+      <c r="D16" t="n">
+        <v>38124</v>
+      </c>
+      <c r="E16">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F16" t="n">
+        <v>11623</v>
+      </c>
+      <c r="G16" t="n">
+        <v>45439</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>40415</v>
+      </c>
+      <c r="B17" t="n">
+        <v>49473</v>
+      </c>
+      <c r="C17" t="n">
+        <v>13401</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10773</v>
+      </c>
+      <c r="E17">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F17" t="n">
+        <v>46707</v>
+      </c>
+      <c r="G17" t="n">
+        <v>49508</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>12294</v>
+      </c>
+      <c r="B18" t="n">
+        <v>13500</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1945</v>
+      </c>
+      <c r="D18" t="n">
+        <v>28159</v>
+      </c>
+      <c r="E18">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F18" t="n">
+        <v>41011</v>
+      </c>
+      <c r="G18" t="n">
+        <v>15596</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>14867</v>
+      </c>
+      <c r="B19" t="n">
+        <v>33860</v>
+      </c>
+      <c r="C19" t="n">
+        <v>21619</v>
+      </c>
+      <c r="D19" t="n">
+        <v>49140</v>
+      </c>
+      <c r="E19">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F19" t="n">
+        <v>15302</v>
+      </c>
+      <c r="G19" t="n">
+        <v>19356</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>47169</v>
+      </c>
+      <c r="B20" t="n">
+        <v>40381</v>
+      </c>
+      <c r="C20" t="n">
+        <v>26545</v>
+      </c>
+      <c r="D20" t="n">
+        <v>33086</v>
+      </c>
+      <c r="E20">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F20" t="n">
+        <v>15868</v>
+      </c>
+      <c r="G20" t="n">
+        <v>18989</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>40308</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2420</v>
+      </c>
+      <c r="C21" t="n">
+        <v>49563</v>
+      </c>
+      <c r="D21" t="n">
+        <v>45318</v>
+      </c>
+      <c r="E21">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F21" t="n">
+        <v>1259</v>
+      </c>
+      <c r="G21" t="n">
+        <v>7791</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>42121</v>
+      </c>
+      <c r="B22" t="n">
+        <v>29984</v>
+      </c>
+      <c r="C22" t="n">
+        <v>29652</v>
+      </c>
+      <c r="D22" t="n">
+        <v>45067</v>
+      </c>
+      <c r="E22">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F22" t="n">
+        <v>16044</v>
+      </c>
+      <c r="G22" t="n">
+        <v>39364</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>4206</v>
+      </c>
+      <c r="B23" t="n">
+        <v>30767</v>
+      </c>
+      <c r="C23" t="n">
+        <v>24278</v>
+      </c>
+      <c r="D23" t="n">
+        <v>28001</v>
+      </c>
+      <c r="E23">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F23" t="n">
+        <v>46619</v>
+      </c>
+      <c r="G23" t="n">
+        <v>44703</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>13125</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1220</v>
+      </c>
+      <c r="C24" t="n">
+        <v>10524</v>
+      </c>
+      <c r="D24" t="n">
+        <v>35928</v>
+      </c>
+      <c r="E24">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F24" t="n">
+        <v>4735</v>
+      </c>
+      <c r="G24" t="n">
+        <v>34682</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24970</v>
+      </c>
+      <c r="B25" t="n">
+        <v>46294</v>
+      </c>
+      <c r="C25" t="n">
+        <v>17041</v>
+      </c>
+      <c r="D25" t="n">
+        <v>31782</v>
+      </c>
+      <c r="E25">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F25" t="n">
+        <v>4093</v>
+      </c>
+      <c r="G25" t="n">
+        <v>17799</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>10660</v>
+      </c>
+      <c r="B26" t="n">
+        <v>26205</v>
+      </c>
+      <c r="C26" t="n">
+        <v>29872</v>
+      </c>
+      <c r="D26" t="n">
+        <v>13849</v>
+      </c>
+      <c r="E26">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F26" t="n">
+        <v>17193</v>
+      </c>
+      <c r="G26" t="n">
+        <v>27281</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>29905</v>
+      </c>
+      <c r="B27" t="n">
+        <v>49738</v>
+      </c>
+      <c r="C27" t="n">
+        <v>16112</v>
+      </c>
+      <c r="D27" t="n">
+        <v>22350</v>
+      </c>
+      <c r="E27">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F27" t="n">
+        <v>33214</v>
+      </c>
+      <c r="G27" t="n">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>12247</v>
+      </c>
+      <c r="B28" t="n">
+        <v>43740</v>
+      </c>
+      <c r="C28" t="n">
+        <v>35403</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4770</v>
+      </c>
+      <c r="E28">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F28" t="n">
+        <v>34284</v>
+      </c>
+      <c r="G28" t="n">
+        <v>34114</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36050</v>
+      </c>
+      <c r="B29" t="n">
+        <v>9069</v>
+      </c>
+      <c r="C29" t="n">
+        <v>5860</v>
+      </c>
+      <c r="D29" t="n">
+        <v>47969</v>
+      </c>
+      <c r="E29">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F29" t="n">
+        <v>23237</v>
+      </c>
+      <c r="G29" t="n">
+        <v>42523</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>13166</v>
+      </c>
+      <c r="B30" t="n">
+        <v>27561</v>
+      </c>
+      <c r="C30" t="n">
+        <v>8151</v>
+      </c>
+      <c r="D30" t="n">
+        <v>19470</v>
+      </c>
+      <c r="E30">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F30" t="n">
+        <v>29215</v>
+      </c>
+      <c r="G30" t="n">
+        <v>37829</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>15823</v>
+      </c>
+      <c r="B31" t="n">
+        <v>32273</v>
+      </c>
+      <c r="C31" t="n">
+        <v>22125</v>
+      </c>
+      <c r="D31" t="n">
+        <v>28164</v>
+      </c>
+      <c r="E31">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F31" t="n">
+        <v>5908</v>
+      </c>
+      <c r="G31" t="n">
+        <v>28867</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5836</v>
+      </c>
+      <c r="B32" t="n">
+        <v>45495</v>
+      </c>
+      <c r="C32" t="n">
+        <v>48354</v>
+      </c>
+      <c r="D32" t="n">
+        <v>18863</v>
+      </c>
+      <c r="E32">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F32" t="n">
+        <v>22381</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5775</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>11348</v>
+      </c>
+      <c r="B33" t="n">
+        <v>34295</v>
+      </c>
+      <c r="C33" t="n">
+        <v>24108</v>
+      </c>
+      <c r="D33" t="n">
+        <v>27950</v>
+      </c>
+      <c r="E33">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F33" t="n">
+        <v>46072</v>
+      </c>
+      <c r="G33" t="n">
+        <v>34667</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>42211</v>
+      </c>
+      <c r="B34" t="n">
+        <v>38636</v>
+      </c>
+      <c r="C34" t="n">
+        <v>48990</v>
+      </c>
+      <c r="D34" t="n">
+        <v>34069</v>
+      </c>
+      <c r="E34">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F34" t="n">
+        <v>38920</v>
+      </c>
+      <c r="G34" t="n">
+        <v>26359</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>48255</v>
+      </c>
+      <c r="B35" t="n">
+        <v>27624</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4213</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3251</v>
+      </c>
+      <c r="E35">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F35" t="n">
+        <v>9109</v>
+      </c>
+      <c r="G35" t="n">
+        <v>31184</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>26407</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4387</v>
+      </c>
+      <c r="C36" t="n">
+        <v>29326</v>
+      </c>
+      <c r="D36" t="n">
+        <v>32721</v>
+      </c>
+      <c r="E36">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F36" t="n">
+        <v>15975</v>
+      </c>
+      <c r="G36" t="n">
+        <v>46656</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>32924</v>
+      </c>
+      <c r="B37" t="n">
+        <v>18314</v>
+      </c>
+      <c r="C37" t="n">
+        <v>47933</v>
+      </c>
+      <c r="D37" t="n">
+        <v>38584</v>
+      </c>
+      <c r="E37">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F37" t="n">
+        <v>17810</v>
+      </c>
+      <c r="G37" t="n">
+        <v>18044</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>47076</v>
+      </c>
+      <c r="B38" t="n">
+        <v>28544</v>
+      </c>
+      <c r="C38" t="n">
+        <v>8412</v>
+      </c>
+      <c r="D38" t="n">
+        <v>32960</v>
+      </c>
+      <c r="E38">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F38" t="n">
+        <v>18887</v>
+      </c>
+      <c r="G38" t="n">
+        <v>7265</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>41010</v>
+      </c>
+      <c r="B39" t="n">
+        <v>7247</v>
+      </c>
+      <c r="C39" t="n">
+        <v>42956</v>
+      </c>
+      <c r="D39" t="n">
+        <v>29816</v>
+      </c>
+      <c r="E39">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F39" t="n">
+        <v>29194</v>
+      </c>
+      <c r="G39" t="n">
+        <v>41311</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>23527</v>
+      </c>
+      <c r="B40" t="n">
+        <v>49554</v>
+      </c>
+      <c r="C40" t="n">
+        <v>36622</v>
+      </c>
+      <c r="D40" t="n">
+        <v>20183</v>
+      </c>
+      <c r="E40">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F40" t="n">
+        <v>46134</v>
+      </c>
+      <c r="G40" t="n">
+        <v>5913</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3262</v>
+      </c>
+      <c r="B41" t="n">
+        <v>19490</v>
+      </c>
+      <c r="C41" t="n">
+        <v>21511</v>
+      </c>
+      <c r="D41" t="n">
+        <v>23861</v>
+      </c>
+      <c r="E41">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F41" t="n">
+        <v>16560</v>
+      </c>
+      <c r="G41" t="n">
+        <v>9394</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>29584</v>
+      </c>
+      <c r="B42" t="n">
+        <v>30773</v>
+      </c>
+      <c r="C42" t="n">
+        <v>36575</v>
+      </c>
+      <c r="D42" t="n">
+        <v>21877</v>
+      </c>
+      <c r="E42">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F42" t="n">
+        <v>5795</v>
+      </c>
+      <c r="G42" t="n">
+        <v>24929</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>17022</v>
+      </c>
+      <c r="B43" t="n">
+        <v>41666</v>
+      </c>
+      <c r="C43" t="n">
+        <v>49006</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1949</v>
+      </c>
+      <c r="E43">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F43" t="n">
+        <v>47913</v>
+      </c>
+      <c r="G43" t="n">
+        <v>43099</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>44747</v>
+      </c>
+      <c r="B44" t="n">
+        <v>49045</v>
+      </c>
+      <c r="C44" t="n">
+        <v>28860</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4363</v>
+      </c>
+      <c r="E44">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F44" t="n">
+        <v>34832</v>
+      </c>
+      <c r="G44" t="n">
+        <v>5392</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>30159</v>
+      </c>
+      <c r="B45" t="n">
+        <v>6458</v>
+      </c>
+      <c r="C45" t="n">
+        <v>48789</v>
+      </c>
+      <c r="D45" t="n">
+        <v>21439</v>
+      </c>
+      <c r="E45">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F45" t="n">
+        <v>46812</v>
+      </c>
+      <c r="G45" t="n">
+        <v>19687</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>20006</v>
+      </c>
+      <c r="B46" t="n">
+        <v>18288</v>
+      </c>
+      <c r="C46" t="n">
+        <v>40321</v>
+      </c>
+      <c r="D46" t="n">
+        <v>32664</v>
+      </c>
+      <c r="E46">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F46" t="n">
+        <v>18259</v>
+      </c>
+      <c r="G46" t="n">
+        <v>13842</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>31136</v>
+      </c>
+      <c r="B47" t="n">
+        <v>14753</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2988</v>
+      </c>
+      <c r="D47" t="n">
+        <v>26600</v>
+      </c>
+      <c r="E47">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F47" t="n">
+        <v>6830</v>
+      </c>
+      <c r="G47" t="n">
+        <v>49917</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/backend/projects/project-a-123-sunset-blvd/data/01_LAND_PURCHASE/Land_Costs.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/01_LAND_PURCHASE/Land_Costs.xlsx
@@ -161,7 +161,7 @@
           <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -192,7 +192,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
           </a:r>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -455,7 +455,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -517,7 +517,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -555,7 +555,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
           </a:r>
           <a:endParaRPr lang="en-US"/>
         </a:p>
